--- a/data/trans_orig/P1802_2016_2023-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P1802_2016_2023-Clase-trans_orig.xlsx
@@ -742,19 +742,19 @@
         <v>68714</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>54876</v>
+        <v>53788</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>87512</v>
+        <v>85279</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.160137652929668</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1278888137855973</v>
+        <v>0.1253524406950187</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2039473042766958</v>
+        <v>0.1987432813464344</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>50</v>
@@ -763,19 +763,19 @@
         <v>53803</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>40332</v>
+        <v>41599</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>67919</v>
+        <v>69979</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1550272503298556</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1162117453991669</v>
+        <v>0.1198622603410383</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1957011798365135</v>
+        <v>0.2016376069202177</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>111</v>
@@ -784,19 +784,19 @@
         <v>122517</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>101232</v>
+        <v>101698</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>144773</v>
+        <v>144867</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1578525310566912</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1304287976249616</v>
+        <v>0.1310287524250354</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1865279364259194</v>
+        <v>0.1866485148912408</v>
       </c>
     </row>
     <row r="5">
@@ -813,19 +813,19 @@
         <v>360378</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>341580</v>
+        <v>343813</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>374216</v>
+        <v>375304</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.839862347070332</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7960526957233045</v>
+        <v>0.8012567186535656</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8721111862144026</v>
+        <v>0.8746475593049813</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>282</v>
@@ -834,19 +834,19 @@
         <v>293252</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>279136</v>
+        <v>277076</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>306723</v>
+        <v>305456</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8449727496701445</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8042988201634864</v>
+        <v>0.7983623930797822</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8837882546008331</v>
+        <v>0.8801377396589617</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>617</v>
@@ -855,19 +855,19 @@
         <v>653630</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>631374</v>
+        <v>631280</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>674915</v>
+        <v>674449</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8421474689433088</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8134720635740805</v>
+        <v>0.8133514851087591</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8695712023750384</v>
+        <v>0.8689712475749647</v>
       </c>
     </row>
     <row r="6">
@@ -959,19 +959,19 @@
         <v>46959</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>35317</v>
+        <v>35486</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>60803</v>
+        <v>62481</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1244848705957655</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.09362383560677377</v>
+        <v>0.09407104040414718</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1611842811078512</v>
+        <v>0.1656324375419201</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>60</v>
@@ -980,19 +980,19 @@
         <v>64634</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>50685</v>
+        <v>50502</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>81392</v>
+        <v>81164</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1736210864821798</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1361512097848363</v>
+        <v>0.1356571776715026</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2186365114745676</v>
+        <v>0.218023379237356</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>103</v>
@@ -1001,19 +1001,19 @@
         <v>111594</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>93622</v>
+        <v>92735</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>132602</v>
+        <v>131559</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1488905987577012</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1249126310795051</v>
+        <v>0.1237294039960424</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1769208355309793</v>
+        <v>0.1755295816919941</v>
       </c>
     </row>
     <row r="8">
@@ -1030,19 +1030,19 @@
         <v>330268</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>316424</v>
+        <v>314746</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>341910</v>
+        <v>341741</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8755151294042345</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.838815718892149</v>
+        <v>0.8343675624580795</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9063761643932263</v>
+        <v>0.9059289595958524</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>292</v>
@@ -1051,19 +1051,19 @@
         <v>307639</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>290881</v>
+        <v>291109</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>321588</v>
+        <v>321771</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8263789135178202</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7813634885254324</v>
+        <v>0.781976620762644</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8638487902151636</v>
+        <v>0.8643428223284974</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>603</v>
@@ -1072,19 +1072,19 @@
         <v>637906</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>616898</v>
+        <v>617941</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>655878</v>
+        <v>656765</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8511094012422987</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8230791644690209</v>
+        <v>0.8244704183080059</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8750873689204949</v>
+        <v>0.8762705960039575</v>
       </c>
     </row>
     <row r="9">
@@ -1176,19 +1176,19 @@
         <v>80607</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>65265</v>
+        <v>64076</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>98057</v>
+        <v>99917</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1544450232697047</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1250496935097141</v>
+        <v>0.12277168672384</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1878803186987418</v>
+        <v>0.1914432560620032</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>38</v>
@@ -1197,19 +1197,19 @@
         <v>40745</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>30039</v>
+        <v>30070</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>52413</v>
+        <v>53753</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2452699812221665</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1808252723067553</v>
+        <v>0.1810090958700326</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3155073045482157</v>
+        <v>0.3235716772621299</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>115</v>
@@ -1218,19 +1218,19 @@
         <v>121352</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>101882</v>
+        <v>101661</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>143067</v>
+        <v>143492</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1763742331485294</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1480766176402464</v>
+        <v>0.1477552888693072</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2079349506490097</v>
+        <v>0.2085534531134219</v>
       </c>
     </row>
     <row r="11">
@@ -1247,19 +1247,19 @@
         <v>441307</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>423857</v>
+        <v>421997</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>456649</v>
+        <v>457838</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8455549767302953</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8121196813012582</v>
+        <v>0.8085567439379968</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8749503064902858</v>
+        <v>0.87722831327616</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>115</v>
@@ -1268,19 +1268,19 @@
         <v>125378</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>113710</v>
+        <v>112370</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>136084</v>
+        <v>136053</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7547300187778334</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6844926954517844</v>
+        <v>0.67642832273787</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8191747276932446</v>
+        <v>0.8189909041299673</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>540</v>
@@ -1289,19 +1289,19 @@
         <v>566684</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>544969</v>
+        <v>544544</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>586154</v>
+        <v>586375</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8236257668514706</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7920650493509902</v>
+        <v>0.7914465468865781</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8519233823597534</v>
+        <v>0.8522447111306928</v>
       </c>
     </row>
     <row r="12">
@@ -1393,19 +1393,19 @@
         <v>176554</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>152987</v>
+        <v>152033</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>202546</v>
+        <v>202659</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1535731299340918</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1330741576183511</v>
+        <v>0.1322439133564429</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1761823984659858</v>
+        <v>0.1762811284058488</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>149</v>
@@ -1414,19 +1414,19 @@
         <v>159020</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>137849</v>
+        <v>136561</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>182158</v>
+        <v>183727</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1925466131295909</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1669128951208814</v>
+        <v>0.1653523539068827</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2205629807905803</v>
+        <v>0.222463484543871</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>317</v>
@@ -1435,19 +1435,19 @@
         <v>335573</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>303429</v>
+        <v>301351</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>375013</v>
+        <v>368890</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1698662339833578</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1535947380720058</v>
+        <v>0.1525431632381449</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1898308021641466</v>
+        <v>0.186730915674903</v>
       </c>
     </row>
     <row r="14">
@@ -1464,19 +1464,19 @@
         <v>973084</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>947092</v>
+        <v>946979</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>996651</v>
+        <v>997605</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8464268700659082</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8238176015340143</v>
+        <v>0.8237188715941514</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8669258423816489</v>
+        <v>0.8677560866435572</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>649</v>
@@ -1485,19 +1485,19 @@
         <v>666856</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>643718</v>
+        <v>642149</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>688027</v>
+        <v>689315</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8074533868704091</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7794370192094198</v>
+        <v>0.7775365154561291</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8330871048791186</v>
+        <v>0.8346476460931175</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1584</v>
@@ -1506,19 +1506,19 @@
         <v>1639941</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1600501</v>
+        <v>1606624</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1672085</v>
+        <v>1674163</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8301337660166422</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8101691978358537</v>
+        <v>0.8132690843250976</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8464052619279945</v>
+        <v>0.8474568367618552</v>
       </c>
     </row>
     <row r="15">
@@ -1610,19 +1610,19 @@
         <v>86391</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>70224</v>
+        <v>71133</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>103915</v>
+        <v>106100</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.13918151083419</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1131353988290812</v>
+        <v>0.1145997128778701</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1674137721263247</v>
+        <v>0.1709344566624565</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>133</v>
@@ -1631,19 +1631,19 @@
         <v>139476</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>117524</v>
+        <v>116626</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>162348</v>
+        <v>158966</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1889300653452648</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1591940251135465</v>
+        <v>0.1579772157972107</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2199104739728836</v>
+        <v>0.2153297369796151</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>217</v>
@@ -1652,19 +1652,19 @@
         <v>225867</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>199587</v>
+        <v>199796</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>255909</v>
+        <v>254552</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1662072130628147</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.146868814973114</v>
+        <v>0.1470221490228491</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1883140375002876</v>
+        <v>0.1873153646822943</v>
       </c>
     </row>
     <row r="17">
@@ -1681,19 +1681,19 @@
         <v>534315</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>516791</v>
+        <v>514606</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>550482</v>
+        <v>549573</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8608184891658099</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8325862278736753</v>
+        <v>0.8290655433375436</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8868646011709186</v>
+        <v>0.8854002871221299</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>566</v>
@@ -1702,19 +1702,19 @@
         <v>598768</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>575896</v>
+        <v>579278</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>620720</v>
+        <v>621618</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8110699346547352</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7800895260271165</v>
+        <v>0.784670263020385</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8408059748864536</v>
+        <v>0.8420227842027893</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1079</v>
@@ -1723,19 +1723,19 @@
         <v>1133083</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1103041</v>
+        <v>1104398</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1159363</v>
+        <v>1159154</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8337927869371853</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8116859624997126</v>
+        <v>0.8126846353177057</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8531311850268865</v>
+        <v>0.852977850977151</v>
       </c>
     </row>
     <row r="18">
@@ -1827,19 +1827,19 @@
         <v>28382</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>19188</v>
+        <v>19251</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>40501</v>
+        <v>40358</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.098842478938407</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.06682357949457468</v>
+        <v>0.06704223826537306</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1410457927015205</v>
+        <v>0.1405508785716997</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>187</v>
@@ -1848,19 +1848,19 @@
         <v>211583</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>183515</v>
+        <v>184452</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>241697</v>
+        <v>238232</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1955433073445448</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1696034798465405</v>
+        <v>0.1704693544541079</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2233743872521026</v>
+        <v>0.2201720596508664</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>214</v>
@@ -1869,19 +1869,19 @@
         <v>239965</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>213270</v>
+        <v>208863</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>269388</v>
+        <v>269102</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1752630107867924</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1557660994885929</v>
+        <v>0.152547334234958</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1967530866363128</v>
+        <v>0.1965436760247463</v>
       </c>
     </row>
     <row r="20">
@@ -1898,19 +1898,19 @@
         <v>258763</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>246644</v>
+        <v>246787</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>267957</v>
+        <v>267894</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.901157521061593</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8589542072984795</v>
+        <v>0.8594491214283</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9331764205054254</v>
+        <v>0.932957761734627</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>805</v>
@@ -1919,19 +1919,19 @@
         <v>870442</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>840328</v>
+        <v>843793</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>898510</v>
+        <v>897573</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8044566926554552</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7766256127478975</v>
+        <v>0.7798279403491336</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8303965201534597</v>
+        <v>0.8295306455458922</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1050</v>
@@ -1940,19 +1940,19 @@
         <v>1129205</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1099782</v>
+        <v>1100068</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1155900</v>
+        <v>1160307</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8247369892132076</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8032469133636873</v>
+        <v>0.8034563239752534</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8442339005114071</v>
+        <v>0.8474526657650416</v>
       </c>
     </row>
     <row r="21">
@@ -2044,19 +2044,19 @@
         <v>487606</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>449785</v>
+        <v>442498</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>530273</v>
+        <v>529951</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1440184056648238</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1328475642601772</v>
+        <v>0.1306952832837057</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1566204559563806</v>
+        <v>0.1565252183119971</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>617</v>
@@ -2065,19 +2065,19 @@
         <v>669261</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>622175</v>
+        <v>626695</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>716821</v>
+        <v>719439</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1895067417892726</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1761740256178504</v>
+        <v>0.1774536681202581</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2029735445504346</v>
+        <v>0.2037150709237006</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1077</v>
@@ -2086,19 +2086,19 @@
         <v>1156868</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1095096</v>
+        <v>1097062</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1226131</v>
+        <v>1221136</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1672422070046684</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1583122726279343</v>
+        <v>0.1585964640914685</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1772552975886898</v>
+        <v>0.1765331728523963</v>
       </c>
     </row>
     <row r="23">
@@ -2115,19 +2115,19 @@
         <v>2898116</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2855449</v>
+        <v>2855771</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>2935937</v>
+        <v>2943224</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.8559815943351762</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8433795440436194</v>
+        <v>0.8434747816880029</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.8671524357398227</v>
+        <v>0.8693047167162942</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>2709</v>
@@ -2136,19 +2136,19 @@
         <v>2862335</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>2814775</v>
+        <v>2812157</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>2909421</v>
+        <v>2904901</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.8104932582107274</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.7970264554495646</v>
+        <v>0.7962849290762992</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.8238259743821496</v>
+        <v>0.8225463318797419</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>5473</v>
@@ -2157,19 +2157,19 @@
         <v>5760450</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>5691187</v>
+        <v>5696182</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>5822222</v>
+        <v>5820256</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.8327577929953316</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.8227447024113103</v>
+        <v>0.8234668271476039</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.8416877273720658</v>
+        <v>0.8414035359085317</v>
       </c>
     </row>
     <row r="24">
@@ -2503,19 +2503,19 @@
         <v>90010</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>72549</v>
+        <v>74171</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>107281</v>
+        <v>108307</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1637309725264342</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1319691790020704</v>
+        <v>0.1349190870211759</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1951471874716676</v>
+        <v>0.197014156926787</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>159</v>
@@ -2524,19 +2524,19 @@
         <v>108995</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>94377</v>
+        <v>94133</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>125865</v>
+        <v>125577</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2234516171901066</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1934841437687266</v>
+        <v>0.1929834977104121</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2580366390000441</v>
+        <v>0.2574476346006919</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>258</v>
@@ -2545,19 +2545,19 @@
         <v>199005</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>176316</v>
+        <v>176896</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>224239</v>
+        <v>225609</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1918078746545512</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1699394144276556</v>
+        <v>0.170498181363677</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2161296946218195</v>
+        <v>0.2174500613957299</v>
       </c>
     </row>
     <row r="5">
@@ -2574,19 +2574,19 @@
         <v>459734</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>442463</v>
+        <v>441437</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>477195</v>
+        <v>475573</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8362690274735658</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8048528125283325</v>
+        <v>0.8029858430732131</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8680308209979297</v>
+        <v>0.8650809129788241</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>526</v>
@@ -2595,19 +2595,19 @@
         <v>378783</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>361913</v>
+        <v>362201</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>393401</v>
+        <v>393645</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.7765483828098932</v>
+        <v>0.7765483828098934</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.741963360999956</v>
+        <v>0.7425523653993079</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8065158562312734</v>
+        <v>0.8070165022895872</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>980</v>
@@ -2616,19 +2616,19 @@
         <v>838517</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>813283</v>
+        <v>811913</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>861206</v>
+        <v>860626</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.808192125345449</v>
+        <v>0.8081921253454488</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7838703053781807</v>
+        <v>0.7825499386042701</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8300605855723443</v>
+        <v>0.8295018186363233</v>
       </c>
     </row>
     <row r="6">
@@ -2720,19 +2720,19 @@
         <v>73929</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>57296</v>
+        <v>59856</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>91322</v>
+        <v>92341</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.152994997574383</v>
+        <v>0.1529949975743829</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1185736356532395</v>
+        <v>0.1238718454323113</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1889905377044141</v>
+        <v>0.1910991185025569</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>128</v>
@@ -2741,19 +2741,19 @@
         <v>85439</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>72004</v>
+        <v>73586</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>99393</v>
+        <v>100360</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2022406414554521</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1704394989619953</v>
+        <v>0.1741849673841581</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2352722581804525</v>
+        <v>0.2375614063290762</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>204</v>
@@ -2762,19 +2762,19 @@
         <v>159368</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>138045</v>
+        <v>140762</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>182683</v>
+        <v>185018</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1759661244277028</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1524223777979505</v>
+        <v>0.1554226075618788</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2017098433298265</v>
+        <v>0.2042878478963805</v>
       </c>
     </row>
     <row r="8">
@@ -2791,19 +2791,19 @@
         <v>409283</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>391890</v>
+        <v>390871</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>425916</v>
+        <v>423356</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.8470050024256169</v>
+        <v>0.847005002425617</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8110094622955858</v>
+        <v>0.8089008814974433</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8814263643467605</v>
+        <v>0.8761281545676888</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>461</v>
@@ -2812,19 +2812,19 @@
         <v>337021</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>323067</v>
+        <v>322100</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>350456</v>
+        <v>348874</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7977593585445479</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7647277418195471</v>
+        <v>0.762438593670924</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8295605010380046</v>
+        <v>0.825815032615842</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>866</v>
@@ -2833,19 +2833,19 @@
         <v>746304</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>722989</v>
+        <v>720654</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>767627</v>
+        <v>764910</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8240338755722971</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7982901566701736</v>
+        <v>0.795712152103619</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8475776222020495</v>
+        <v>0.8445773924381211</v>
       </c>
     </row>
     <row r="9">
@@ -2937,19 +2937,19 @@
         <v>71777</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>58253</v>
+        <v>56959</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>88756</v>
+        <v>87898</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.1521944540880133</v>
+        <v>0.1521944540880132</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1235186745253584</v>
+        <v>0.1207750117392327</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1881977696189082</v>
+        <v>0.1863771196018814</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>62</v>
@@ -2958,19 +2958,19 @@
         <v>40291</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>31290</v>
+        <v>31746</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>52068</v>
+        <v>51738</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2148878677230061</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1668822798221658</v>
+        <v>0.1693147895405347</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2777001419859712</v>
+        <v>0.2759405635264831</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>137</v>
@@ -2979,19 +2979,19 @@
         <v>112068</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>94343</v>
+        <v>95382</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>131050</v>
+        <v>131089</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1700289015633815</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1431376024075177</v>
+        <v>0.1447132366616173</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1988291899224655</v>
+        <v>0.198888661286532</v>
       </c>
     </row>
     <row r="11">
@@ -3008,19 +3008,19 @@
         <v>399835</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>382856</v>
+        <v>383714</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>413359</v>
+        <v>414653</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.8478055459119869</v>
+        <v>0.8478055459119868</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8118022303810918</v>
+        <v>0.8136228803981186</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8764813254746415</v>
+        <v>0.8792249882607673</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>227</v>
@@ -3029,19 +3029,19 @@
         <v>147206</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>135429</v>
+        <v>135759</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>156207</v>
+        <v>155751</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7851121322769937</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.722299858014029</v>
+        <v>0.7240594364735171</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8331177201778343</v>
+        <v>0.8306852104594653</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>640</v>
@@ -3050,19 +3050,19 @@
         <v>547041</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>528059</v>
+        <v>528020</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>564766</v>
+        <v>563727</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8299710984366185</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8011708100775345</v>
+        <v>0.8011113387134681</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8568623975924824</v>
+        <v>0.8552867633383827</v>
       </c>
     </row>
     <row r="12">
@@ -3154,19 +3154,19 @@
         <v>194596</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>171735</v>
+        <v>170086</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>223183</v>
+        <v>221962</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1720499752256164</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1518375522117361</v>
+        <v>0.1503793312365524</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1973245876744664</v>
+        <v>0.196244854280945</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>284</v>
@@ -3175,19 +3175,19 @@
         <v>183675</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>164457</v>
+        <v>163189</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>204022</v>
+        <v>203799</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2136020377644563</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1912531140065292</v>
+        <v>0.1897782884903454</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2372645502507617</v>
+        <v>0.2370051749829972</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>491</v>
@@ -3196,19 +3196,19 @@
         <v>378271</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>344335</v>
+        <v>344428</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>414016</v>
+        <v>412144</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1899964324122469</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1729510403235683</v>
+        <v>0.1729976213064141</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2079501725324646</v>
+        <v>0.2070098199523366</v>
       </c>
     </row>
     <row r="14">
@@ -3225,19 +3225,19 @@
         <v>936450</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>907863</v>
+        <v>909084</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>959311</v>
+        <v>960960</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.8279500247743837</v>
+        <v>0.8279500247743836</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.802675412325534</v>
+        <v>0.803755145719055</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8481624477882639</v>
+        <v>0.8496206687634476</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>944</v>
@@ -3246,19 +3246,19 @@
         <v>676217</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>655870</v>
+        <v>656093</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>695435</v>
+        <v>696703</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7863979622355436</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7627354497492382</v>
+        <v>0.7629948250170029</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8087468859934706</v>
+        <v>0.8102217115096547</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1854</v>
@@ -3267,19 +3267,19 @@
         <v>1612667</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1576922</v>
+        <v>1578794</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1646603</v>
+        <v>1646510</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.8100035675877529</v>
+        <v>0.810003567587753</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7920498274675356</v>
+        <v>0.7929901800476634</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8270489596764314</v>
+        <v>0.8270023786935858</v>
       </c>
     </row>
     <row r="15">
@@ -3371,19 +3371,19 @@
         <v>81107</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>65462</v>
+        <v>64941</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>98708</v>
+        <v>100617</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.1428038441061288</v>
+        <v>0.1428038441061287</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.115257325696942</v>
+        <v>0.1143396336378196</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1737933322732223</v>
+        <v>0.1771540575458637</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>253</v>
@@ -3392,19 +3392,19 @@
         <v>151956</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>134965</v>
+        <v>133673</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>171129</v>
+        <v>168927</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.1828922603862766</v>
+        <v>0.1828922603862767</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1624418602170087</v>
+        <v>0.1608872695203743</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2059685001016496</v>
+        <v>0.2033187557525481</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>338</v>
@@ -3413,19 +3413,19 @@
         <v>233063</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>208994</v>
+        <v>208787</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>257788</v>
+        <v>256600</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.1666150660931215</v>
+        <v>0.1666150660931214</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1494080567424858</v>
+        <v>0.1492603312661836</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1842905496909249</v>
+        <v>0.1834412100647151</v>
       </c>
     </row>
     <row r="17">
@@ -3442,19 +3442,19 @@
         <v>486857</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>469256</v>
+        <v>467347</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>502502</v>
+        <v>503023</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.8571961558938714</v>
+        <v>0.8571961558938711</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8262066677267778</v>
+        <v>0.822845942454136</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8847426743030579</v>
+        <v>0.8856603663621805</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1037</v>
@@ -3463,19 +3463,19 @@
         <v>678894</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>659721</v>
+        <v>661923</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>695885</v>
+        <v>697177</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.8171077396137233</v>
+        <v>0.8171077396137235</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7940314998983504</v>
+        <v>0.7966812442474518</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8375581397829913</v>
+        <v>0.8391127304796255</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1499</v>
@@ -3484,19 +3484,19 @@
         <v>1165751</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1141026</v>
+        <v>1142214</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1189820</v>
+        <v>1190027</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.8333849339068786</v>
+        <v>0.8333849339068784</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8157094503090752</v>
+        <v>0.8165587899352849</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8505919432575142</v>
+        <v>0.8507396687338162</v>
       </c>
     </row>
     <row r="18">
@@ -3588,19 +3588,19 @@
         <v>10117</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>4098</v>
+        <v>4263</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>19965</v>
+        <v>21508</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.04264698421903124</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.017274908145972</v>
+        <v>0.01797081718178779</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.08415854504918172</v>
+        <v>0.09066454341910898</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>176</v>
@@ -3609,19 +3609,19 @@
         <v>115432</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>98598</v>
+        <v>99242</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>135728</v>
+        <v>134331</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1368332303615346</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1168786860427611</v>
+        <v>0.1176414038986095</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.160892278546507</v>
+        <v>0.1592358600253401</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>184</v>
@@ -3630,19 +3630,19 @@
         <v>125549</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>108278</v>
+        <v>107429</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>149495</v>
+        <v>147297</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1161604899577955</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1001806670508537</v>
+        <v>0.09939501765049515</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1383155475062935</v>
+        <v>0.1362821864023144</v>
       </c>
     </row>
     <row r="20">
@@ -3659,19 +3659,19 @@
         <v>227111</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>217263</v>
+        <v>215720</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>233130</v>
+        <v>232965</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.9573530157809688</v>
+        <v>0.9573530157809687</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9158414549508185</v>
+        <v>0.9093354565808911</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9827250918540282</v>
+        <v>0.9820291828182124</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>982</v>
@@ -3680,19 +3680,19 @@
         <v>728164</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>707868</v>
+        <v>709265</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>744998</v>
+        <v>744354</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.8631667696384655</v>
+        <v>0.8631667696384656</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8391077214534929</v>
+        <v>0.84076413997466</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8831213139572388</v>
+        <v>0.8823585961013906</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1086</v>
@@ -3701,19 +3701,19 @@
         <v>955275</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>931329</v>
+        <v>933527</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>972546</v>
+        <v>973395</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8838395100422044</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8616844524937068</v>
+        <v>0.8637178135976857</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8998193329491466</v>
+        <v>0.9006049823495047</v>
       </c>
     </row>
     <row r="21">
@@ -3805,19 +3805,19 @@
         <v>521537</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>478811</v>
+        <v>480007</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>567693</v>
+        <v>567351</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1515740341978231</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1391566491813696</v>
+        <v>0.1395042730587136</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1649884770191695</v>
+        <v>0.1648889624826325</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1062</v>
@@ -3826,19 +3826,19 @@
         <v>685787</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>643989</v>
+        <v>644551</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>724011</v>
+        <v>724649</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1888141756146559</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1773060545490182</v>
+        <v>0.177460991895001</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1993383095075961</v>
+        <v>0.1995139739392499</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1612</v>
@@ -3847,19 +3847,19 @@
         <v>1207324</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1146807</v>
+        <v>1153237</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1267507</v>
+        <v>1267611</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1706976359691186</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1621414346046916</v>
+        <v>0.1630506071023511</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1792066520580713</v>
+        <v>0.179221388346662</v>
       </c>
     </row>
     <row r="23">
@@ -3876,19 +3876,19 @@
         <v>2919268</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2873112</v>
+        <v>2873454</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>2961994</v>
+        <v>2960798</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.848425965802177</v>
+        <v>0.8484259658021768</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8350115229808311</v>
+        <v>0.8351110375173671</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.8608433508186306</v>
+        <v>0.8604957269412863</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>4177</v>
@@ -3897,19 +3897,19 @@
         <v>2946286</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>2908062</v>
+        <v>2907424</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>2988084</v>
+        <v>2987522</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.811185824385344</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8006616904924039</v>
+        <v>0.8004860260607494</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.8226939454509818</v>
+        <v>0.8225390081049988</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>6925</v>
@@ -3918,19 +3918,19 @@
         <v>5865554</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>5805371</v>
+        <v>5805267</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>5926071</v>
+        <v>5919641</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.8293023640308813</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.8207933479419282</v>
+        <v>0.8207786116533382</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.8378585653953081</v>
+        <v>0.836949392897649</v>
       </c>
     </row>
     <row r="24">
